--- a/Web/wwwroot/UploadExcel/کنترل شده کارکرد نهایی2.xlsx
+++ b/Web/wwwroot/UploadExcel/کنترل شده کارکرد نهایی2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4156E78-CEE5-4A73-A6F8-59212320625C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A71DF5-491D-4430-AD8D-A096D247CEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>رديف</t>
   </si>
@@ -71,78 +73,6 @@
     <t>غیبت</t>
   </si>
   <si>
-    <t>ابراهیمی</t>
-  </si>
-  <si>
-    <t>0322319137</t>
-  </si>
-  <si>
-    <t>سیده شهره</t>
-  </si>
-  <si>
-    <t>0311277357</t>
-  </si>
-  <si>
-    <t>مجتبی</t>
-  </si>
-  <si>
-    <t>ابراهیمی پنجكي</t>
-  </si>
-  <si>
-    <t>3782220201</t>
-  </si>
-  <si>
-    <t>محمدرضا</t>
-  </si>
-  <si>
-    <t>ابراهیمی راد</t>
-  </si>
-  <si>
-    <t>0323587704</t>
-  </si>
-  <si>
-    <t>نوید</t>
-  </si>
-  <si>
-    <t>0310714850</t>
-  </si>
-  <si>
-    <t>احمد رضا</t>
-  </si>
-  <si>
-    <t>ابوالحسنی</t>
-  </si>
-  <si>
-    <t>0310720885</t>
-  </si>
-  <si>
-    <t>عباس</t>
-  </si>
-  <si>
-    <t>احمدی کلیشمی</t>
-  </si>
-  <si>
-    <t>0310663301</t>
-  </si>
-  <si>
-    <t>علی</t>
-  </si>
-  <si>
-    <t>احمدی</t>
-  </si>
-  <si>
-    <t>0055268609</t>
-  </si>
-  <si>
-    <t>افسانه</t>
-  </si>
-  <si>
-    <t>4280849838</t>
-  </si>
-  <si>
-    <t>مرسل</t>
-  </si>
-  <si>
     <t>سایر کسورات</t>
   </si>
   <si>
@@ -300,6 +230,9 @@
   </si>
   <si>
     <t>جبارزاده</t>
+  </si>
+  <si>
+    <t>0312468105</t>
   </si>
 </sst>
 </file>
@@ -400,19 +333,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -439,6 +366,13 @@
       <alignment vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -791,28 +725,28 @@
   <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2"/>
+    <col min="2" max="2" width="14.88671875" style="16"/>
     <col min="3" max="7" width="14.88671875" style="1"/>
-    <col min="8" max="8" width="14.88671875" style="3"/>
+    <col min="8" max="8" width="14.88671875" style="2"/>
     <col min="9" max="10" width="14.88671875" style="1"/>
-    <col min="11" max="19" width="14.88671875" style="3"/>
+    <col min="11" max="19" width="14.88671875" style="2"/>
     <col min="20" max="26" width="14.88671875" style="1"/>
-    <col min="27" max="27" width="14.88671875" style="3"/>
+    <col min="27" max="27" width="14.88671875" style="2"/>
     <col min="28" max="29" width="14.88671875" style="1"/>
-    <col min="30" max="34" width="14.88671875" style="3"/>
-    <col min="35" max="36" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="14.88671875" style="3"/>
+    <col min="30" max="34" width="14.88671875" style="2"/>
+    <col min="35" max="36" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="14.88671875" style="2"/>
     <col min="49" max="51" width="14.88671875" style="1"/>
     <col min="52" max="52" width="13.44140625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -825,209 +759,209 @@
     <col min="64" max="16384" width="14.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="9" customFormat="1" ht="51" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" ht="51" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="BC1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="BD1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="BF1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="BG1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="BH1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="BJ1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="BK1" s="12" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="18" customHeight="1">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="15">
-        <v>5079929200</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>87</v>
+      <c r="B2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1">
         <v>31</v>
@@ -1035,285 +969,27 @@
       <c r="I2" s="1">
         <v>120</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>10</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>10</v>
+      </c>
+      <c r="P2" s="2">
+        <v>500</v>
       </c>
       <c r="T2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:63" ht="18" customHeight="1">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1">
-        <v>50</v>
-      </c>
-      <c r="K3" s="3">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:63" ht="18" customHeight="1">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1">
-        <v>180</v>
-      </c>
-      <c r="K4" s="3">
-        <v>10</v>
-      </c>
-      <c r="L4" s="3">
-        <v>15</v>
-      </c>
-      <c r="T4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1">
-        <v>140</v>
-      </c>
-      <c r="K5" s="3">
-        <v>10</v>
-      </c>
-      <c r="L5" s="3">
-        <v>10</v>
-      </c>
-      <c r="T5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:63" ht="18" customHeight="1">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1">
-        <v>180</v>
-      </c>
-      <c r="K6" s="3">
-        <v>10</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:63" ht="18" customHeight="1">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1">
-        <v>120</v>
-      </c>
-      <c r="K7" s="3">
-        <v>10</v>
-      </c>
-      <c r="L7" s="3">
-        <v>10</v>
-      </c>
-      <c r="T7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63" ht="18" customHeight="1">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1">
-        <v>31</v>
-      </c>
-      <c r="I8" s="1">
-        <v>180</v>
-      </c>
-      <c r="K8" s="3">
-        <v>10</v>
-      </c>
-      <c r="L8" s="3">
-        <v>15</v>
-      </c>
-      <c r="T8" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:63" ht="18" customHeight="1">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1">
-        <v>31</v>
-      </c>
-      <c r="I9" s="1">
-        <v>180</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10</v>
-      </c>
-      <c r="L9" s="3">
-        <v>15</v>
-      </c>
-      <c r="T9" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:63" ht="18" customHeight="1">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1">
-        <v>60</v>
-      </c>
-      <c r="K10" s="3">
-        <v>10</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63" ht="18" customHeight="1">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="1">
-        <v>31</v>
-      </c>
-      <c r="I11" s="1">
-        <v>180</v>
-      </c>
-      <c r="K11" s="3">
-        <v>10</v>
-      </c>
-      <c r="L11" s="3">
-        <v>15</v>
-      </c>
-      <c r="T11" s="1">
-        <v>15</v>
+      <c r="BK2" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>